--- a/test/v8m-result-3-balanced/result-m-v1.xlsx
+++ b/test/v8m-result-3-balanced/result-m-v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\ML\repos\capstone-2024-fall\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\ML\repos\capstone-2024-fall\test\v8m-result-3-balanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FA71D29E-9589-449C-9AD6-8176C0E5C643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2740F0E-BD9C-42DB-8031-F8FCCEB83B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -712,37 +712,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -816,7 +786,78 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2852-4857-A180-1746516427A1}"/>
+              <c16:uniqueId val="{00000000-A3C6-41D2-93E3-2B7C445881DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall(B)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>result!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>All</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Braille-block-defect</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sidewalk-block-defect</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bicycle-road-defect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>result!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.64134573993683897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88577586206896497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45226587532786999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58599548241368105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3C6-41D2-93E3-2B7C445881DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -830,11 +871,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="409327520"/>
-        <c:axId val="409329184"/>
+        <c:axId val="1890453392"/>
+        <c:axId val="1891078912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="409327520"/>
+        <c:axId val="1890453392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -877,7 +918,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409329184"/>
+        <c:crossAx val="1891078912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -885,10 +926,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="409329184"/>
+        <c:axId val="1891078912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.65000000000000013"/>
+          <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -937,7 +978,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409327520"/>
+        <c:crossAx val="1890453392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -949,6 +990,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1007,37 +1079,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1049,11 +1091,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>result!$C$1</c:f>
+              <c:f>result!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Recall(B)</c:v>
+                  <c:v>mAP50(B)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1090,28 +1132,99 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>result!$C$2:$C$5</c:f>
+              <c:f>result!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.64134573993683897</c:v>
+                  <c:v>0.71291508687659599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88577586206896497</c:v>
+                  <c:v>0.93582039817923002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45226587532786999</c:v>
+                  <c:v>0.52805249103366103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58599548241368105</c:v>
+                  <c:v>0.67487237141689604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1417-4556-9215-D2008667B86C}"/>
+              <c16:uniqueId val="{00000000-F8D9-490D-9F0D-90E9AC21924A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mAP50-95</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>result!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>All</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Braille-block-defect</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sidewalk-block-defect</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bicycle-road-defect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>result!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.52616005266349697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74231305339952902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34547213144160099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.490694973149361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F8D9-490D-9F0D-90E9AC21924A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1125,11 +1238,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="329916752"/>
-        <c:axId val="329915920"/>
+        <c:axId val="1890450480"/>
+        <c:axId val="1890454640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329916752"/>
+        <c:axId val="1890450480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,7 +1285,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329915920"/>
+        <c:crossAx val="1890454640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1180,10 +1293,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329915920"/>
+        <c:axId val="1890454640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.4"/>
+          <c:min val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1232,7 +1345,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329916752"/>
+        <c:crossAx val="1890450480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1244,65 +1357,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1316,7 +1372,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1331,509 +1387,7 @@
           <a:endParaRPr lang="ko-KR"/>
         </a:p>
       </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>result!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mAP50(B)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>result!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>All</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Braille-block-defect</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sidewalk-block-defect</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Bicycle-road-defect</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>result!$D$2:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.71291508687659599</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93582039817923002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.52805249103366103</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.67487237141689604</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-656D-4E31-AA5D-795FDFD9EBF9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="166451808"/>
-        <c:axId val="166455968"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="166451808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="166455968"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="166455968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.4"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="166451808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>result!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mAP50-95</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>result!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>All</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Braille-block-defect</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sidewalk-block-defect</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Bicycle-road-defect</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>result!$E$2:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.52616005266349697</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.74231305339952902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.34547213144160099</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.490694973149361</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-00FB-4BB0-B76B-E77547FCD4A7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="407145184"/>
-        <c:axId val="407147264"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="407145184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="407147264"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="407147264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="407145184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1958,86 +1512,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2542,1012 +2016,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4055,22 +2523,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>636270</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>179070</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2">
+        <xdr:cNvPr id="7" name="차트 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BE8830F-2066-4500-97B7-AD754D1FEA18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411E8AB3-B990-4002-BC14-D2B7987C3F8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4090,23 +2558,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>194310</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>201930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>407670</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="차트 3">
+        <xdr:cNvPr id="8" name="차트 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1697A82D-28D2-4932-99D3-4DD7543903AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAAF50D8-E165-4535-9596-24FAC58AB94B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4119,78 +2587,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="차트 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58BF14C-A71B-4C24-8FA7-D1E03A3E1DD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>49530</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>217170</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="차트 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC4971C-56D2-4F7A-8DF5-2BB2589D33D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4495,11 +2891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
